--- a/src/exel/ул. Гаккелевская, д. 18, к. 3_250_600_react.xlsx
+++ b/src/exel/ул. Гаккелевская, д. 18, к. 3_250_600_react.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C026A8-B91A-4479-8432-9DF296ECA061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC533EF-1684-40ED-96B8-6E5F7D54745B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:AS210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="B40" sqref="B40:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4043,7 +4043,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="14">
-        <f>MIN(B10:B39)</f>
+        <f>B10</f>
         <v>1</v>
       </c>
       <c r="C40" s="14">
